--- a/medicine/Maladie à coronavirus 2019/Variants_du_SARS-CoV-2/Variants_du_SARS-CoV-2.xlsx
+++ b/medicine/Maladie à coronavirus 2019/Variants_du_SARS-CoV-2/Variants_du_SARS-CoV-2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le SARS-CoV-2 (coronavirus 2 du syndrome respiratoire aigu sévère) est le virus qui cause la maladie à coronavirus 2019 (Covid-19). La séquence WIV04 / 2019 serait la séquence d'origine infectant les humains[1]. Comme tout virus, le SARS-CoV-2 a évolué et a créé des variants. Certains sont considérés comme d'une importance particulière. D614G est probablement la mutation la plus importante et l'une des plus répandues du SARS-CoV-2. Cette mutation empêche un mécanisme d'infection des globules blancs connu sous le nom de facilitation de l'infection par des anticorps.
-Les coronavirus sont censés être stables dans la mesure où ils produisent une enzyme correctrice d’erreurs appelée « exoribonucléase ». D’après l’INSERM, le SARS-CoV-2 muterait ainsi deux fois moins rapidement que les virus grippaux[2]. Dans les faits, le SARS-CoV-2 se révèle assez mutagène[3],[4].
+Le SARS-CoV-2 (coronavirus 2 du syndrome respiratoire aigu sévère) est le virus qui cause la maladie à coronavirus 2019 (Covid-19). La séquence WIV04 / 2019 serait la séquence d'origine infectant les humains. Comme tout virus, le SARS-CoV-2 a évolué et a créé des variants. Certains sont considérés comme d'une importance particulière. D614G est probablement la mutation la plus importante et l'une des plus répandues du SARS-CoV-2. Cette mutation empêche un mécanisme d'infection des globules blancs connu sous le nom de facilitation de l'infection par des anticorps.
+Les coronavirus sont censés être stables dans la mesure où ils produisent une enzyme correctrice d’erreurs appelée « exoribonucléase ». D’après l’INSERM, le SARS-CoV-2 muterait ainsi deux fois moins rapidement que les virus grippaux. Dans les faits, le SARS-CoV-2 se révèle assez mutagène,.
 Fin 2020 et début janvier 2021, trois variants problématiques sont identifiés : le variant alpha en Angleterre, le variant bêta en Afrique du Sud, et le variant gamma au Brésil. En 2021, au moins sept autres variants ont été recensés par l’OMS comme d’intérêt. Les variants les plus contagieux (de 50 à 75 % par rapport à la souche initiale) ont été successivement le variant alpha durant l'hiver 2020, puis le variant delta identifié en Inde à partir du printemps 2021.
-Fin 2022, de nouveaux variants dérivant de la souche Omicron circulent dans le monde. : BQ.1.1 en Europe ou XBB en Asie sont "surveillés du fait de leurs mutations sur la protéine Spike, leur conférant un potentiel pouvoir d’échappement immunitaire"[5].
-Ces variants ne remettent pas en cause l’efficacité des vaccins contre la Covid-19. Seules des combinaisons de mutations bien spécifiques sur la protéine S sont susceptibles en théorie de compromettre l'efficacité des vaccins. Une combinaison déjà identifiée pourrait être le trio de mutations[6],[7] : F140-, Y248* et E484K.
+Fin 2022, de nouveaux variants dérivant de la souche Omicron circulent dans le monde. : BQ.1.1 en Europe ou XBB en Asie sont "surveillés du fait de leurs mutations sur la protéine Spike, leur conférant un potentiel pouvoir d’échappement immunitaire".
+Ces variants ne remettent pas en cause l’efficacité des vaccins contre la Covid-19. Seules des combinaisons de mutations bien spécifiques sur la protéine S sont susceptibles en théorie de compromettre l'efficacité des vaccins. Une combinaison déjà identifiée pourrait être le trio de mutations, : F140-, Y248* et E484K.
 </t>
         </is>
       </c>
@@ -516,27 +528,101 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aucune nomenclature pour les lignées évolutives du SARS-CoV-2 n'est universellement acceptée[8], cependant en janvier 2021, l’Organisation mondiale de la santé travaille sur une « nomenclature standard pour les variants du SARS-CoV-2 qui ne fait pas référence à une localisation géographique »[9]. Dans une lettre d'information datée du 31 mai 2021, l'OMS annonce nommer les variants par une lettre grecque[10]. L'OMS précise que « ces noms ne remplacent pas les noms scientifiques [attribués par d'autres], qui véhiculent des informations scientifiques importantes ».
-Bien qu'il existe plusieurs milliers de variants du SARS-CoV-2[11], les sous-types du virus peuvent être placés dans des groupes beaucoup plus larges tels que les lignées ou les clades. Plusieurs nomenclatures différentes pour ces sous-types ont été proposées.
-Catégorisation des variants
-variant préoccupant[12], VOC (variant of concern)
-variant d'intérêt[12], ou variant à suivre[12], VOI (variant of interest) également dénommé VUI (variant under investigation)[13]
-variant en cours d’évaluation, ou variant sous surveillance[12], VUM (variant under monitoring)
-Différentes nomenclatures
-Entités réalisant un nommage
-Nextstrain
-Nextstrain nomme les clades majeurs par le numéro de l'année et une lettre (les lettres sont successives, depuis « A », chaque nouvelle année)[14], par exemple : 19A, 19B, 20A.
-Pour un clade émergent, la notation comporte alors le nom du clade parent, et la mutation de nucléotide qui le définit[14] (attention, la numérotation est par nucléotide, et non par codon), par exemple, 19A/28688C signifie : pour le clade 19A, en position de nucléotide 28688, la base nucléique est maintenant la cytosine (C).
-Une fois que le clade émergent a atteint les critères nécessaires, il est renommé comme clade majeur[14], par exemple : 19A/28688C devient 20D.
-Les règles de nommage ont été révisées début janvier 2021[15] pour éviter les nommages géographiques tel 20A.EU1 (variant émergent en Europe). Une notation mixte 20H/501Y.V2 ou 20I/501Y.V1 est alors utilisée avec un numéro d'ordre : V1, V2, etc.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aucune nomenclature pour les lignées évolutives du SARS-CoV-2 n'est universellement acceptée, cependant en janvier 2021, l’Organisation mondiale de la santé travaille sur une « nomenclature standard pour les variants du SARS-CoV-2 qui ne fait pas référence à une localisation géographique ». Dans une lettre d'information datée du 31 mai 2021, l'OMS annonce nommer les variants par une lettre grecque. L'OMS précise que « ces noms ne remplacent pas les noms scientifiques [attribués par d'autres], qui véhiculent des informations scientifiques importantes ».
+Bien qu'il existe plusieurs milliers de variants du SARS-CoV-2, les sous-types du virus peuvent être placés dans des groupes beaucoup plus larges tels que les lignées ou les clades. Plusieurs nomenclatures différentes pour ces sous-types ont été proposées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Variants_du_SARS-CoV-2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Maladie à coronavirus 2019/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Variants_du_SARS-CoV-2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Nomenclature</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Catégorisation des variants</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>variant préoccupant, VOC (variant of concern)
+variant d'intérêt, ou variant à suivre, VOI (variant of interest) également dénommé VUI (variant under investigation)
+variant en cours d’évaluation, ou variant sous surveillance, VUM (variant under monitoring)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Variants_du_SARS-CoV-2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Maladie à coronavirus 2019/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Variants_du_SARS-CoV-2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Nomenclature</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Différentes nomenclatures</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Entités réalisant un nommage</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nextstrain
+Nextstrain nomme les clades majeurs par le numéro de l'année et une lettre (les lettres sont successives, depuis « A », chaque nouvelle année), par exemple : 19A, 19B, 20A.
+Pour un clade émergent, la notation comporte alors le nom du clade parent, et la mutation de nucléotide qui le définit (attention, la numérotation est par nucléotide, et non par codon), par exemple, 19A/28688C signifie : pour le clade 19A, en position de nucléotide 28688, la base nucléique est maintenant la cytosine (C).
+Une fois que le clade émergent a atteint les critères nécessaires, il est renommé comme clade majeur, par exemple : 19A/28688C devient 20D.
+Les règles de nommage ont été révisées début janvier 2021 pour éviter les nommages géographiques tel 20A.EU1 (variant émergent en Europe). Une notation mixte 20H/501Y.V2 ou 20I/501Y.V1 est alors utilisée avec un numéro d'ordre : V1, V2, etc.
 Lors de cette révision des règles, les noms des clades ont été conservés (rétrocompatibilité), sauf pour trois noms :
-20A.EU1 devient « 20E (EU1) » – 20A.EU1 ayant été élevé au rang de clade (il devrait alors se nommer « 20E » uniquement) ; les parenthèses « (EU1) » établissent le lien entre l'ancien et le nouveau nom[15] ;
-20B/501Y.V1 devient 20I/501Y.V1 – nommage plus complexe : 20B/501Y.V1 ayant été élevé au rang de clade (nommé « 20I » uniquement), mais ayant été précédemment défini avec le nom « 501Y.V1 » seul[16], cette même terminaison a été conservée, sans provoquer de confusion[15],[17] ;
+20A.EU1 devient « 20E (EU1) » – 20A.EU1 ayant été élevé au rang de clade (il devrait alors se nommer « 20E » uniquement) ; les parenthèses « (EU1) » établissent le lien entre l'ancien et le nouveau nom ;
+20B/501Y.V1 devient 20I/501Y.V1 – nommage plus complexe : 20B/501Y.V1 ayant été élevé au rang de clade (nommé « 20I » uniquement), mais ayant été précédemment défini avec le nom « 501Y.V1 » seul, cette même terminaison a été conservée, sans provoquer de confusion, ;
 20C/501Y.V2 devient 20H/501Y.V2 – idem.
-Le nom d'un clade émergeant s'effectue avec le nom du clade parent et, selon le numéro de nucléotide, la mutation qui le définit[14], par exemple : 20G/1927C signifie un changement de nucléotide (ici en cytosine – C) à la position 1927, dans le clade 20G.
-Cependant, afin de pouvoir nommer des mutations au niveau des codons, une règle a été définie pour attribuer des noms par mutation dans chaque cadre de lecture ouvert (ORF) codant chaque protéine[15], par exemple 20B/S.484K signifie une mutation du codon (ici codage de la lysine – K) à la position 484 dans la protéine S (notation « S. ») du virus. Les numéros de codons sont relatifs à chaque ORF.
+Le nom d'un clade émergeant s'effectue avec le nom du clade parent et, selon le numéro de nucléotide, la mutation qui le définit, par exemple : 20G/1927C signifie un changement de nucléotide (ici en cytosine – C) à la position 1927, dans le clade 20G.
+Cependant, afin de pouvoir nommer des mutations au niveau des codons, une règle a été définie pour attribuer des noms par mutation dans chaque cadre de lecture ouvert (ORF) codant chaque protéine, par exemple 20B/S.484K signifie une mutation du codon (ici codage de la lysine – K) à la position 484 dans la protéine S (notation « S. ») du virus. Les numéros de codons sont relatifs à chaque ORF.
 Historique des clades définis par Nextrain, et de leurs relations (de 2019 à avril 2024) ▼
 			Clades Nextstrain (2019-2020).  Début janvier 2021, les clades alors en usage étaient : 20A, 20B, 20C, 20D, 20E, 20F, 20G, 20H/501Y.V2 et 20I/501Y.V1.
 Depuis juin 2021 les noms attribués par l'OMS sont alors indiqués :
@@ -553,7 +639,7 @@
 			Clades Nextstrain, décembre 2023 (+ 23G, 23H, 23I).
 			Clades Nextstrain, avril 2024 (+ 24A et 24B).
 GISAID
-En mars 2021, GISAID avait défini huit clades[18] pour les variants du SARS-CoV-2. Les clades sont nommés d'après leur mutation essentielle. Depuis les deux clades initiaux, « S » et « L » (ces noms proviennent d'une étude préalable à celle de GISAID[18],[19]), les autres clades sont :
+En mars 2021, GISAID avait défini huit clades pour les variants du SARS-CoV-2. Les clades sont nommés d'après leur mutation essentielle. Depuis les deux clades initiaux, « S » et « L » (ces noms proviennent d'une étude préalable à celle de GISAID,), les autres clades sont :
 S
 L
 V (pour NS3-G251V)
@@ -564,8 +650,8 @@
 GV (pour S-A222V)
 Ces clades GISAID peuvent alors être affinés par la définition de lignées, comme celles de Lignées Pango.
 Lignées Pango
-Le système de nomenclature « Lignées Pango »[20] est un système standardisé et dynamique, désignant les variants alarmants du SARS-CoV-2 en fonction de la phylogénie[21],[22].
-Lignées Pango[23] remarquables[Note 1], arbre des lignées ▼
+Le système de nomenclature « Lignées Pango » est un système standardisé et dynamique, désignant les variants alarmants du SARS-CoV-2 en fonction de la phylogénie,.
+Lignées Pango remarquables[Note 1], arbre des lignées ▼
 A [2019-12-30] (second haplotype découvert – après « B » – ; la racine de la pandémie se situe dans cette lignée A).
 A.23
 A.23.1 [2020-10-21]
@@ -639,32 +725,71 @@
 B.1.621.1 [2021-03-18]
 Public Health England
 Lors de la détection d'un variant dans le Kent au sud-est de Londres, l'agence exécutive gouvernementale britannique Public Health England (PHE) a défini une nomenclature.
-En septembre 2020, PHE a détecté un variant qui s'est révélé digne d'intérêt en décembre 2020, et l'a appelé, le 14 décembre 2020, « first Variant Under Investigation in December 2020 »[24] 
-(VUI-202012/01, pour Variant Under Investigation, year 2020, month 12, variant 01)[25],[26].
-Ce variant a été rebaptisé « variant préoccupant » (Variant of Concern, VOC) le 18 décembre 2020, soit alors « VOC-202012/01 »[27].
-Mi-mars 2021, PHE a modifié ses règles de nommage en : [VOC/VUI] – [deux derniers chiffres de l'année] – [trois caractères du mois] – [numéro de variant dans le mois sur deux digits][28].
+En septembre 2020, PHE a détecté un variant qui s'est révélé digne d'intérêt en décembre 2020, et l'a appelé, le 14 décembre 2020, « first Variant Under Investigation in December 2020 » 
+(VUI-202012/01, pour Variant Under Investigation, year 2020, month 12, variant 01),.
+Ce variant a été rebaptisé « variant préoccupant » (Variant of Concern, VOC) le 18 décembre 2020, soit alors « VOC-202012/01 ».
+Mi-mars 2021, PHE a modifié ses règles de nommage en : [VOC/VUI] – [deux derniers chiffres de l'année] – [trois caractères du mois] – [numéro de variant dans le mois sur deux digits].
 Depuis lors, « VOC-202012/01 » est connu comme « VOC-20DEC-01 ».
-Public Health England a également été chargé du séquencement du variant dit « sud-africain », en décembre 2020. Ce variant a alors reçu le nom de « VOC-202012/02 »[29].
-Il est depuis nommé « VOC-20DEC-02 »[28] (synonymes : 501Y.V2, B.1.351)[30].
-Pour les variants dits « brésiliens », Public Health England a effectué le séquençage d'un variant en novembre 2020, depuis nommé « VUI-21JAN-01 »[28] (synonymes : Zêta, ou P.2 – descendant de B.1.1.28)[30], et d'un variant détecté au Japon, sur des voyageurs en provenance du Brésil, depuis nommé « VOC-21JAN-02 »[28] (synonymes : Gamma, ou P.1 – descendant de B.1.1.28)[30].
-Noms et équivalences
-Depuis le 31 mai 2021, l'OMS a défini la règle de nommage des variants[10], et catégorisé ces variants (VOC/VOI/VUM)[31]. Dans les tableaux suivants, c'est cette qualification qui est retenue.
+Public Health England a également été chargé du séquencement du variant dit « sud-africain », en décembre 2020. Ce variant a alors reçu le nom de « VOC-202012/02 ».
+Il est depuis nommé « VOC-20DEC-02 » (synonymes : 501Y.V2, B.1.351).
+Pour les variants dits « brésiliens », Public Health England a effectué le séquençage d'un variant en novembre 2020, depuis nommé « VUI-21JAN-01 » (synonymes : Zêta, ou P.2 – descendant de B.1.1.28), et d'un variant détecté au Japon, sur des voyageurs en provenance du Brésil, depuis nommé « VOC-21JAN-02 » (synonymes : Gamma, ou P.1 – descendant de B.1.1.28).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Variants_du_SARS-CoV-2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Maladie à coronavirus 2019/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Variants_du_SARS-CoV-2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Nomenclature</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Différentes nomenclatures</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Noms et équivalences</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis le 31 mai 2021, l'OMS a défini la règle de nommage des variants, et catégorisé ces variants (VOC/VOI/VUM). Dans les tableaux suivants, c'est cette qualification qui est retenue.
 Cependant, le nommage des variants, et leur catégorisation évolue dans le temps. Ainsi, l'état est ici indiqué pour la dernière publication de l'OMS connue : au 21 septembre 2021.
 Depuis le 31 mai 2021, jusqu'au 21 septembre 2021, les publications de l'OMS ont successivement indiqué ▼
-31 mai 2021[31] :
-• définition de la règle de nommage[10] ;
+31 mai 2021 :
+• définition de la règle de nommage ;
 • publication des VOC « Alpha », « Bêta », « Gamma » et « Delta » ;
 • publication des VOI « Epsilon », « Zêta », « Êta », « Thêta », « Iota », « Kappa » ;
-15 juin 2021[32] :
+15 juin 2021 :
 • publication du VOI « Lambda » ;
-1er juillet 2021[33] :
+1er juillet 2021 :
 • classification de nouvelles lignées, pour les variants Bêta et Gamma :
 outre B.1.351, Bêta est maintenant défini comme B.1.351 + B.1.351.2 + B.1.351.3
 outre P.1, Gamma est maintenant défini comme P.1 + P.1.1 + P.1.2
 • surveillances additionnelles introduites pour les variants Alpha et Gamma :
 pour Alpha, surveillance des mutations S:484K et S:452R ;
 pour Gamma, surveillance de la mutation S:417N ;
-6 juillet 2021[34] :
+6 juillet 2021 :
 • surveillances additionnelles introduites pour les variants Bêta et Delta :
 pour Bêta, surveillance de la mutation S:L18F ;
 pour Delta, surveillance de la mutation S:417N ;
@@ -682,13 +807,13 @@
 AT.1
 C.36.3 + C.36.3.1
 B.1.214.2
-22 juillet 2021[35] :
+22 juillet 2021 :
 • classification d'une nouvelle lignée intégrée au variant Delta :
 outre B.1.617.2 + AY.1 + AY.2, Delta est maintenant défini comme B.1.617.2 + AY.1 + AY.2 + AY.3
 • les variants B.1.1.523, B.1.619 et B.1.620 sont ajoutés à la liste des VUM.
-23 juillet 2021[36] :
+23 juillet 2021 :
 • dans la liste des VUM, retrait de AV.1 &amp; AT.1, qui ne sont maintenant plus suivis ;
-13 août 2021[37] :
+13 août 2021 :
 • classification de nouvelles lignées, pour des noms de variants existants :
 outre P.1 + P.1.1 + P.1.2, Gamma est maintenant défini comme P.1 + P.1.1 + P.1.2 + P.1.4 + P.1.6 + P.1.7
 outre B.1.617.2 + AY.1 + AY.2 + AY.2, Delta est maintenant défini comme B.1.617.2 + AY.1 + AY.2 + AY.3 + AY.3.1
@@ -696,39 +821,38 @@
 retrait de P.2 (ex- Zêta), P.3 (ex- Thêta) et R.2, qui ne sont maintenant plus suivis ;
 la surveillance de B.1.619 est étendue à celle de B.1.619 + B.1.619.1 ;
 la surveillance de B.1.621 est étendue à celle de B.1.621 + B.1.621.1 ;
-25 août 2021[38] :
+25 août 2021 :
 • classification de nouvelles lignées, pour des noms de variants existants :
 outre B.1.1.7, Alpha est maintenant défini comme B.1.1.7 + Q.* (c.-à-d. B.1.1.7.* — « * » signifiant « n'importe quel suffixe » ) ;
 outre B.1.351, Bêta est maintenant défini comme B.1.351 + B.1.351.2 + B.1.351.3 ;
 Gamma, auparavant défini comme P.1 + P.1.1 + P.1.2 + P.1.4 + P.1.6 + P.1.7, est maintenant réduit à P.1 + P.1.4 + P.1.6 + P.1.7 ;
 Delta, auparavant défini comme B.1.617.2 + AY.1 + AY.2 + AY.3 +  AY.3.1, est maintenant défini comme B.1.617.2 + AY.* (c.-à-d. B.1.617.2.*) — « * » signifiant « n'importe quel suffixe » ) ;
-1er septembre 2021[39] :
+1er septembre 2021 :
 • classification de nouvelles lignées, pour des noms de variants existants :
 Gamma, auparavant défini comme P.1 + P.1.4 + P.1.6 + P.1.7, est maintenant réduit à P.1 ;
 • publication du VOI « Mu » (synonyme de B.1.621) ;
-2 septembre 2021[40] :
+2 septembre 2021 :
 • dans la liste des VUM, ajout de C.1.2 ;
-21 septembre 2021[41] :
+21 septembre 2021 :
 • les variants Êta, Iota, Kappa ont été requalifiés de VOI à VUM le 20 septembre 2021 ;
-[42],[43],[44],[45],[46],[47],[48],[49],[50],[51],[52],[53],[54],[55],[56],[57],[58],[59],[60],[61],[62],[63],[64],[65],[66],[67],[68],[69],[70],[71],[72],[73]
 Variants préoccupants (VOC)
 Les variants Alpha, Bêta, Gamma, Delta et Omicron sont classés par l'OMS comme préoccupants.
-Sources : OMS[88], PANGOlin[21], Public Health England[89], Santé Publique France[90].
+Sources : OMS, PANGOlin, Public Health England, Santé Publique France.
 Notes VOC du tableau :
 ↑ Dénomination des mutations : • Δ indique une délétion, par exemple Δ69/70 indique la délétion des codons aux positions 69 et 70 (sens 5' vers 3') ; • αnnβ signifie que le codon en position nn a subi une modification de l'un, ou de plusieurs, de ses trois nucléotides. Ainsi, au lieu de coder, précédemment, l'acide aminé α, il code maintenant l'acide aminé β. Les vingt-deux acides aminés sont représentés par un code : une lettre capitale (voir la liste des codes). Par exemple N501Y signifie : en position 501, le codon de l'asparagine (N) est remplacé par l'un des codons de la tyrosine (Y) ; • nn, la position du codon, est relative au début de l'ORF indiqué.
 ↑ a b et c 
 Les noms en gras (ou les portions de nom) sont les noms d'usage de l'OMS avant le 1er juin 2021, l'OMS n'ayant alors pas défini officiellement de noms de variants).
 Variants d'intérêt (VOI)
-Sources : OMS[88], PANGOlin[21], Public Health England[89], Santé Publique France[90].
+Sources : OMS, PANGOlin, Public Health England, Santé Publique France.
 Notes VOI du tableau :
 ↑ Dénomination des mutations : • Δ indique une délétion, par exemple Δ69/70 indique la délétion des codons aux positions 69 et 70 (sens 5' vers 3') ; • αnnβ signifie que le codon en position nn a subi une modification de l'un, ou de plusieurs, de ses trois nucléotides. Ainsi, au lieu de coder, précédemment, l'acide aminé α, il code maintenant l'acide aminé β. Les vingt-deux acides aminés sont représentés par un code : une lettre capitale (voir la liste des codes). Par exemple N501Y signifie : en position 501, le codon de l'asparagine (N) est remplacé par l'un des codons de la tyrosine (Y) ; • nn, la position du codon, est relative au début de l'ORF indiqué.
 Variants en cours d’évaluation (VUM)
-Sources : OMS[88], PANGOlin[21], Public Health England[89], Santé Publique France[90].
+Sources : OMS, PANGOlin, Public Health England, Santé Publique France.
 Notes VUM du tableau :
 ↑ Dénomination des mutations : • Δ indique une délétion, par exemple Δ69/70 indique la délétion des codons aux positions 69 et 70 (sens 5' vers 3') ; • αnnβ signifie que le codon en position nn a subi une modification de l'un, ou de plusieurs, de ses trois nucléotides. Ainsi, au lieu de coder, précédemment, l'acide aminé α, il code maintenant l'acide aminé β. Les vingt-deux acides aminés sont représentés par un code : une lettre capitale (voir la liste des codes). Par exemple N501Y signifie : en position 501, le codon de l'asparagine (N) est remplacé par l'un des codons de la tyrosine (Y) ; • nn, la position du codon, est relative au début de l'ORF indiqué.
 Variants non-suivis
 Ce sont les variants, précédemment classifiés comme VOI, qui ont été successivement requalifiés de VOI à VUM, puis de VUM à non-suivi (noté ici NS)
-Sources : OMS[88], PANGOlin[21], Public Health England[89], Santé Publique France[90].
+Sources : OMS, PANGOlin, Public Health England, Santé Publique France.
 Notes NS du tableau :
 ↑ Dénomination des mutations : • Δ indique une délétion, par exemple Δ69/70 indique la délétion des codons aux positions 69 et 70 (sens 5' vers 3') ; • αnnβ signifie que le codon en position nn a subi une modification de l'un, ou de plusieurs, de ses trois nucléotides. Ainsi, au lieu de coder, précédemment, l'acide aminé α, il code maintenant l'acide aminé β. Les vingt-deux acides aminés sont représentés par un code : une lettre capitale (voir la liste des codes). Par exemple N501Y signifie : en position 501, le codon de l'asparagine (N) est remplacé par l'un des codons de la tyrosine (Y) ; • nn, la position du codon, est relative au début de l'ORF indiqué.
 </t>
